--- a/.storybook/public/audits/FooterBar.xlsx
+++ b/.storybook/public/audits/FooterBar.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="280">
   <si>
     <t>Composant : FooterBar</t>
   </si>
@@ -618,6 +618,9 @@
 Le titre des sous-menus ne permet pas le letter-spacing (car possède un "letter-spacing: 0.0015em !important;" sur .text-subtitle-1).
 Pour les réseaux sociaux =&gt; voir audit SocialMediaLinks
 "The author requirement is both to not interfere with a user's ability to override the author settings, and to ensure that content thus modified does not break content" : https://www.w3.org/WAI/WCAG22/Understanding/text-spacing.html</t>
+  </si>
+  <si>
+    <t>CollapsibleList</t>
   </si>
   <si>
     <t>10.13</t>
@@ -4310,7 +4313,7 @@
         <v>190</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -4336,10 +4339,10 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="32"/>
       <c r="B82" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>34</v>
@@ -4370,10 +4373,10 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="35"/>
       <c r="B83" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>34</v>
@@ -4403,13 +4406,13 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" s="30" t="s">
         <v>34</v>
@@ -4440,10 +4443,10 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="32"/>
       <c r="B85" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>34</v>
@@ -4474,10 +4477,10 @@
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="32"/>
       <c r="B86" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="30" t="s">
         <v>34</v>
@@ -4508,10 +4511,10 @@
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="32"/>
       <c r="B87" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="30" t="s">
         <v>34</v>
@@ -4542,10 +4545,10 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="32"/>
       <c r="B88" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>34</v>
@@ -4576,10 +4579,10 @@
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="32"/>
       <c r="B89" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D89" s="30" t="s">
         <v>34</v>
@@ -4610,10 +4613,10 @@
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="32"/>
       <c r="B90" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90" s="30" t="s">
         <v>34</v>
@@ -4644,10 +4647,10 @@
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="32"/>
       <c r="B91" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91" s="30" t="s">
         <v>34</v>
@@ -4678,10 +4681,10 @@
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="32"/>
       <c r="B92" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>34</v>
@@ -4712,10 +4715,10 @@
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="32"/>
       <c r="B93" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93" s="30" t="s">
         <v>34</v>
@@ -4746,10 +4749,10 @@
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="32"/>
       <c r="B94" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="30" t="s">
         <v>34</v>
@@ -4780,10 +4783,10 @@
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="32"/>
       <c r="B95" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>34</v>
@@ -4814,10 +4817,10 @@
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="35"/>
       <c r="B96" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96" s="30" t="s">
         <v>34</v>
@@ -4847,13 +4850,13 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>34</v>
@@ -4884,10 +4887,10 @@
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="32"/>
       <c r="B98" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>34</v>
@@ -4918,10 +4921,10 @@
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="32"/>
       <c r="B99" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>34</v>
@@ -4952,10 +4955,10 @@
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="32"/>
       <c r="B100" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>34</v>
@@ -4986,16 +4989,16 @@
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="32"/>
       <c r="B101" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D101" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="4"/>
@@ -5022,10 +5025,10 @@
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="32"/>
       <c r="B102" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>22</v>
@@ -5056,10 +5059,10 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="32"/>
       <c r="B103" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D103" s="30" t="s">
         <v>34</v>
@@ -5090,16 +5093,16 @@
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="32"/>
       <c r="B104" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F104" s="34" t="s">
         <v>28</v>
@@ -5128,16 +5131,16 @@
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="32"/>
       <c r="B105" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="4"/>
@@ -5164,10 +5167,10 @@
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="32"/>
       <c r="B106" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D106" s="30" t="s">
         <v>34</v>
@@ -5198,10 +5201,10 @@
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="35"/>
       <c r="B107" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D107" s="30" t="s">
         <v>34</v>
@@ -5231,13 +5234,13 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>34</v>
@@ -5268,10 +5271,10 @@
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="32"/>
       <c r="B109" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>34</v>
@@ -5302,10 +5305,10 @@
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="32"/>
       <c r="B110" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" s="30" t="s">
         <v>34</v>
@@ -5336,10 +5339,10 @@
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="32"/>
       <c r="B111" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>34</v>
@@ -5370,10 +5373,10 @@
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="32"/>
       <c r="B112" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>34</v>
@@ -5404,10 +5407,10 @@
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="32"/>
       <c r="B113" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D113" s="30" t="s">
         <v>34</v>
@@ -5438,10 +5441,10 @@
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="32"/>
       <c r="B114" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>34</v>
@@ -5472,10 +5475,10 @@
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="32"/>
       <c r="B115" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D115" s="30" t="s">
         <v>34</v>
@@ -5506,10 +5509,10 @@
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="32"/>
       <c r="B116" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D116" s="30" t="s">
         <v>34</v>
@@ -5540,10 +5543,10 @@
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="32"/>
       <c r="B117" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D117" s="30" t="s">
         <v>34</v>
@@ -5574,10 +5577,10 @@
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="32"/>
       <c r="B118" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D118" s="30" t="s">
         <v>34</v>
@@ -5608,10 +5611,10 @@
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="35"/>
       <c r="B119" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D119" s="30" t="s">
         <v>34</v>
@@ -5697,13 +5700,13 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="8"/>
       <c r="E122" s="39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="4"/>
@@ -5729,13 +5732,13 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="8"/>
       <c r="E123" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="4"/>
@@ -5761,13 +5764,13 @@
     </row>
     <row r="124" ht="31.5" customHeight="1">
       <c r="A124" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="8"/>
       <c r="E124" s="43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="4"/>
